--- a/src/main/resources/Web_Inspect_Template/Template.xlsx
+++ b/src/main/resources/Web_Inspect_Template/Template.xlsx
@@ -5,29 +5,30 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanojs\Documents\autobots-web-inspect\src\main\resources\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanojs\Documents\autobots-web-inspect\src\main\resources\Web_Inspect_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16035" windowHeight="7470" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16035" windowHeight="7470" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="InputLocators" sheetId="1" r:id="rId1"/>
-    <sheet name="ButtonLocators" sheetId="2" r:id="rId2"/>
-    <sheet name="TextareaLocators" sheetId="3" r:id="rId3"/>
-    <sheet name="DropDownLocators" sheetId="4" r:id="rId4"/>
-    <sheet name="LinkLocators" sheetId="6" r:id="rId5"/>
-    <sheet name="LabelLocators" sheetId="7" r:id="rId6"/>
-    <sheet name="TableLocators" sheetId="8" r:id="rId7"/>
-    <sheet name="ImageLocators" sheetId="9" r:id="rId8"/>
-    <sheet name="HeadingLocators" sheetId="10" r:id="rId9"/>
+    <sheet name="ButtonLocators" sheetId="11" r:id="rId2"/>
+    <sheet name="DropDownLocators" sheetId="13" r:id="rId3"/>
+    <sheet name="DropDownOptionLocators" sheetId="14" r:id="rId4"/>
+    <sheet name="TextareaLocators" sheetId="12" r:id="rId5"/>
+    <sheet name="LinkLocators" sheetId="6" r:id="rId6"/>
+    <sheet name="LabelLocators" sheetId="7" r:id="rId7"/>
+    <sheet name="TableLocators" sheetId="8" r:id="rId8"/>
+    <sheet name="ImageLocators" sheetId="9" r:id="rId9"/>
+    <sheet name="HeadingLocators" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="51">
   <si>
     <t>S.No</t>
   </si>
@@ -35,99 +36,6 @@
     <t>Input_Variable</t>
   </si>
   <si>
-    <t>Button_Variable</t>
-  </si>
-  <si>
-    <t>TextArea_Variable</t>
-  </si>
-  <si>
-    <t>TestArea_2</t>
-  </si>
-  <si>
-    <t>TestArea_3</t>
-  </si>
-  <si>
-    <t>TestArea_4</t>
-  </si>
-  <si>
-    <t>TestArea_5</t>
-  </si>
-  <si>
-    <t>TestArea_6</t>
-  </si>
-  <si>
-    <t>TestArea_7</t>
-  </si>
-  <si>
-    <t>TestArea_8</t>
-  </si>
-  <si>
-    <t>TestArea_9</t>
-  </si>
-  <si>
-    <t>TestArea_10</t>
-  </si>
-  <si>
-    <t>TestArea_11</t>
-  </si>
-  <si>
-    <t>Button_2</t>
-  </si>
-  <si>
-    <t>Button_3</t>
-  </si>
-  <si>
-    <t>Button_4</t>
-  </si>
-  <si>
-    <t>Button_5</t>
-  </si>
-  <si>
-    <t>Button_6</t>
-  </si>
-  <si>
-    <t>Button_7</t>
-  </si>
-  <si>
-    <t>Button_8</t>
-  </si>
-  <si>
-    <t>Button_9</t>
-  </si>
-  <si>
-    <t>Button_10</t>
-  </si>
-  <si>
-    <t>Button_11</t>
-  </si>
-  <si>
-    <t>Button_12</t>
-  </si>
-  <si>
-    <t>Button_13</t>
-  </si>
-  <si>
-    <t>Button_14</t>
-  </si>
-  <si>
-    <t>Button_15</t>
-  </si>
-  <si>
-    <t>Button_16</t>
-  </si>
-  <si>
-    <t>Button_17</t>
-  </si>
-  <si>
-    <t>Button_18</t>
-  </si>
-  <si>
-    <t>Button_19</t>
-  </si>
-  <si>
-    <t>Button_20</t>
-  </si>
-  <si>
     <t>Input_12</t>
   </si>
   <si>
@@ -155,33 +63,6 @@
     <t>Input_20</t>
   </si>
   <si>
-    <t>TestArea_12</t>
-  </si>
-  <si>
-    <t>TestArea_13</t>
-  </si>
-  <si>
-    <t>TestArea_14</t>
-  </si>
-  <si>
-    <t>TestArea_15</t>
-  </si>
-  <si>
-    <t>TestArea_16</t>
-  </si>
-  <si>
-    <t>TestArea_17</t>
-  </si>
-  <si>
-    <t>TestArea_18</t>
-  </si>
-  <si>
-    <t>TestArea_19</t>
-  </si>
-  <si>
-    <t>TestArea_20</t>
-  </si>
-  <si>
     <t>DropDown_Variable</t>
   </si>
   <si>
@@ -267,12 +148,6 @@
   </si>
   <si>
     <t>DropDown_1</t>
-  </si>
-  <si>
-    <t>TestArea_1</t>
-  </si>
-  <si>
-    <t>Button_1</t>
   </si>
   <si>
     <t>Input_1</t>
@@ -376,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -387,10 +262,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -728,25 +599,25 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>1</v>
@@ -757,7 +628,7 @@
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H2" s="1" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="I2" s="2">
         <v>1</v>
@@ -765,7 +636,7 @@
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H3" s="1" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="I3" s="2">
         <v>2</v>
@@ -773,7 +644,7 @@
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H4" s="1" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="I4" s="2">
         <v>3</v>
@@ -781,7 +652,7 @@
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H5" s="1" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="I5" s="2">
         <v>4</v>
@@ -789,7 +660,7 @@
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H6" s="1" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="I6" s="2">
         <v>5</v>
@@ -797,7 +668,7 @@
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H7" s="1" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="I7" s="2">
         <v>6</v>
@@ -805,7 +676,7 @@
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H8" s="1" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="I8" s="2">
         <v>7</v>
@@ -813,7 +684,7 @@
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H9" s="1" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="I9" s="2">
         <v>8</v>
@@ -821,7 +692,7 @@
     </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H10" s="1" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="I10" s="2">
         <v>9</v>
@@ -829,7 +700,7 @@
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H11" s="1" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="I11" s="2">
         <v>10</v>
@@ -837,7 +708,7 @@
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H12" s="1" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="I12" s="2">
         <v>11</v>
@@ -845,7 +716,7 @@
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H13" s="1" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="I13" s="2">
         <v>12</v>
@@ -853,7 +724,7 @@
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H14" s="1" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="I14" s="2">
         <v>13</v>
@@ -861,7 +732,7 @@
     </row>
     <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H15" s="1" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="I15" s="2">
         <v>14</v>
@@ -869,7 +740,7 @@
     </row>
     <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H16" s="1" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="I16" s="2">
         <v>15</v>
@@ -877,7 +748,7 @@
     </row>
     <row r="17" spans="8:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H17" s="1" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="I17" s="2">
         <v>16</v>
@@ -885,7 +756,7 @@
     </row>
     <row r="18" spans="8:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H18" s="1" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="I18" s="2">
         <v>17</v>
@@ -893,7 +764,7 @@
     </row>
     <row r="19" spans="8:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H19" s="1" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="I19" s="2">
         <v>18</v>
@@ -901,7 +772,7 @@
     </row>
     <row r="20" spans="8:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H20" s="1" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="I20" s="2">
         <v>19</v>
@@ -909,7 +780,7 @@
     </row>
     <row r="21" spans="8:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H21" s="1" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="I21" s="2">
         <v>20</v>
@@ -922,790 +793,202 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.28515625" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" style="3" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="D1" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H5" s="1" t="s">
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H6" s="1" t="s">
+      <c r="F1" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H7" s="1" t="s">
+      <c r="G1" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I16" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="8:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I17" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="8:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I18" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="8:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I19" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="8:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I20" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="8:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I21" s="2">
-        <v>20</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="3"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I14" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I15" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I16" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="8:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I17" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="8:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="8:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H19" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I19" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="8:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I20" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="8:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H21" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I21" s="2">
-        <v>20</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="43.28515625" customWidth="1"/>
-    <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="3"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I3" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I4" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I5" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I6" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I7" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" t="s">
-        <v>59</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I8" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I9" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I10" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H11" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I11" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I12" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I13" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H14" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I14" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H15" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I15" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H16" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I16" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="8:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H17" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I17" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="8:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H18" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I18" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="8:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H19" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I19" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="8:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H20" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I20" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="8:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H21" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I21" s="2">
-        <v>20</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1717,28 +1000,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>0</v>
@@ -1746,13 +1029,13 @@
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F2" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="I2" s="2">
         <v>1</v>
@@ -1760,13 +1043,13 @@
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F3" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I3" s="2">
         <v>2</v>
@@ -1774,13 +1057,13 @@
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F4" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="I4" s="2">
         <v>3</v>
@@ -1788,25 +1071,25 @@
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="I5" s="2">
         <v>4</v>
@@ -1814,25 +1097,25 @@
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="I6" s="2">
         <v>5</v>
@@ -1840,25 +1123,25 @@
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="I7" s="2">
         <v>6</v>
@@ -1866,25 +1149,25 @@
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="I8" s="2">
         <v>7</v>
@@ -1892,25 +1175,25 @@
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="I9" s="2">
         <v>8</v>
@@ -1918,7 +1201,7 @@
     </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H10" s="1" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="I10" s="2">
         <v>9</v>
@@ -1926,7 +1209,7 @@
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H11" s="1" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="I11" s="2">
         <v>10</v>
@@ -1934,7 +1217,7 @@
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H12" s="1" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="I12" s="2">
         <v>11</v>
@@ -1942,7 +1225,7 @@
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H13" s="1" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="I13" s="2">
         <v>12</v>
@@ -1950,7 +1233,7 @@
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H14" s="1" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="I14" s="2">
         <v>13</v>
@@ -1958,7 +1241,7 @@
     </row>
     <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H15" s="1" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="I15" s="2">
         <v>14</v>
@@ -1966,7 +1249,7 @@
     </row>
     <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H16" s="1" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="I16" s="2">
         <v>15</v>
@@ -1974,7 +1257,7 @@
     </row>
     <row r="17" spans="8:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H17" s="1" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I17" s="2">
         <v>16</v>
@@ -1982,7 +1265,7 @@
     </row>
     <row r="18" spans="8:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H18" s="1" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="I18" s="2">
         <v>17</v>
@@ -1990,7 +1273,7 @@
     </row>
     <row r="19" spans="8:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H19" s="1" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="I19" s="2">
         <v>18</v>
@@ -1998,7 +1281,7 @@
     </row>
     <row r="20" spans="8:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H20" s="1" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="I20" s="2">
         <v>19</v>
@@ -2006,48 +1289,10 @@
     </row>
     <row r="21" spans="8:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H21" s="1" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="I21" s="2">
         <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2067,25 +1312,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2105,25 +1350,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2135,33 +1380,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
